--- a/elisp/games/cram/cramdb.xlsx
+++ b/elisp/games/cram/cramdb.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Mats\projects\utils\elisp\games\cram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC26CCB-3372-4612-A45C-1D5699BBA3E9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F86DE8D-FBB9-47C6-8CEA-6063EF005359}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="4358" activeTab="1" xr2:uid="{84A8FEC2-47A2-4631-BC17-51AE36360BD0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" activeTab="1" xr2:uid="{84A8FEC2-47A2-4631-BC17-51AE36360BD0}"/>
   </bookViews>
   <sheets>
     <sheet name="MB" sheetId="1" r:id="rId1"/>
-    <sheet name="Norgescuppen" sheetId="2" r:id="rId2"/>
-    <sheet name="Columns" sheetId="3" r:id="rId3"/>
+    <sheet name="Norske konger" sheetId="4" r:id="rId2"/>
+    <sheet name="Danske konger" sheetId="5" r:id="rId3"/>
+    <sheet name="Norgescuppen" sheetId="2" r:id="rId4"/>
+    <sheet name="Columns" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="200">
   <si>
     <t>csv-ref-1</t>
   </si>
@@ -318,19 +326,342 @@
   </si>
   <si>
     <t xml:space="preserve">Hvem skal snekre sybord til mor </t>
+  </si>
+  <si>
+    <t>Harald</t>
+  </si>
+  <si>
+    <t>Halfdansson</t>
+  </si>
+  <si>
+    <t>Hårfagre</t>
+  </si>
+  <si>
+    <t>c931</t>
+  </si>
+  <si>
+    <t>Eirik</t>
+  </si>
+  <si>
+    <t>Haraldsson</t>
+  </si>
+  <si>
+    <t>Blodøks</t>
+  </si>
+  <si>
+    <t>c933</t>
+  </si>
+  <si>
+    <t>Håkon</t>
+  </si>
+  <si>
+    <t>Adelstensfostre – den gode</t>
+  </si>
+  <si>
+    <t>c960</t>
+  </si>
+  <si>
+    <t>Eriksson</t>
+  </si>
+  <si>
+    <t>Gråfell</t>
+  </si>
+  <si>
+    <t>c970</t>
+  </si>
+  <si>
+    <t>Sigurdsson</t>
+  </si>
+  <si>
+    <t>Ladejarl dansk styre</t>
+  </si>
+  <si>
+    <t>Olav</t>
+  </si>
+  <si>
+    <t>Tryggvason</t>
+  </si>
+  <si>
+    <t>Eirik og Svein</t>
+  </si>
+  <si>
+    <t>Håkonsson</t>
+  </si>
+  <si>
+    <t>Ladejarler dansk styre</t>
+  </si>
+  <si>
+    <t>den Hellige</t>
+  </si>
+  <si>
+    <t>Eiriksson</t>
+  </si>
+  <si>
+    <t>Knud</t>
+  </si>
+  <si>
+    <t>Sveinsson</t>
+  </si>
+  <si>
+    <t>Svein</t>
+  </si>
+  <si>
+    <t>Knutsson Alfivason</t>
+  </si>
+  <si>
+    <t>dansk styre</t>
+  </si>
+  <si>
+    <t>Magnus</t>
+  </si>
+  <si>
+    <t>Olavsson</t>
+  </si>
+  <si>
+    <t>den gode</t>
+  </si>
+  <si>
+    <t>Hardråde</t>
+  </si>
+  <si>
+    <t>Kyrre</t>
+  </si>
+  <si>
+    <t>Magnusson</t>
+  </si>
+  <si>
+    <t>Toresfostre</t>
+  </si>
+  <si>
+    <t>Sønn av Magnus 2, lokal</t>
+  </si>
+  <si>
+    <t>Berrføtt</t>
+  </si>
+  <si>
+    <t>Døde 16 år gammel, for ung til offisiell konge</t>
+  </si>
+  <si>
+    <t>Øystein</t>
+  </si>
+  <si>
+    <t>Sigurd</t>
+  </si>
+  <si>
+    <t>Jorsalfare</t>
+  </si>
+  <si>
+    <t>den blinde</t>
+  </si>
+  <si>
+    <t>Gille</t>
+  </si>
+  <si>
+    <t>Munn</t>
+  </si>
+  <si>
+    <t>Inge</t>
+  </si>
+  <si>
+    <t>Krokrygg</t>
+  </si>
+  <si>
+    <t>Herdebrei</t>
+  </si>
+  <si>
+    <t>Erlingsson</t>
+  </si>
+  <si>
+    <t>Sønn av Erling Skakke</t>
+  </si>
+  <si>
+    <t>Sverre</t>
+  </si>
+  <si>
+    <t>Sverresson</t>
+  </si>
+  <si>
+    <t>Bårdsson</t>
+  </si>
+  <si>
+    <t>Datter av Cecilia Sigurdsdatter, Sverres søster. Halvbror til Hertug Skule</t>
+  </si>
+  <si>
+    <t>Lagabøte</t>
+  </si>
+  <si>
+    <t>Margrete</t>
+  </si>
+  <si>
+    <t>Valdemarsdatter</t>
+  </si>
+  <si>
+    <t>Datter av Atterdag, Krigen mot Albrekt av Mecklenburg (88-95)</t>
+  </si>
+  <si>
+    <t>Erik av Pommern</t>
+  </si>
+  <si>
+    <t>Krigen om Slesvig (16-32)</t>
+  </si>
+  <si>
+    <t>Christoffer</t>
+  </si>
+  <si>
+    <t>av Bayern</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Knutsson</t>
+  </si>
+  <si>
+    <t>Bonde</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Interregnum 1</t>
+  </si>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>Frederik</t>
+  </si>
+  <si>
+    <t>Interregnum 2</t>
+  </si>
+  <si>
+    <t>Hannibalfeiden (43-5), Freden i Brömsebro (45)</t>
+  </si>
+  <si>
+    <t>Freden i Roskilde (58), Bjelkefeiden (58-9), Krabbefeiden (57-60)</t>
+  </si>
+  <si>
+    <t>Tyttebærkrigen (1788-9)</t>
+  </si>
+  <si>
+    <t>Christian Frederik</t>
+  </si>
+  <si>
+    <t>Johan</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Haakon</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>Navn</t>
+  </si>
+  <si>
+    <t>Etternavn</t>
+  </si>
+  <si>
+    <t>Tilnavn</t>
+  </si>
+  <si>
+    <t>Født</t>
+  </si>
+  <si>
+    <t>Død</t>
+  </si>
+  <si>
+    <t>Far</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Mor</t>
+  </si>
+  <si>
+    <t>Tjueskjegg</t>
+  </si>
+  <si>
+    <t>Blåtann</t>
+  </si>
+  <si>
+    <t>Gorm</t>
+  </si>
+  <si>
+    <t>den gamle</t>
+  </si>
+  <si>
+    <t>Hardeknut</t>
+  </si>
+  <si>
+    <t>Gormsson</t>
+  </si>
+  <si>
+    <t>den første</t>
+  </si>
+  <si>
+    <t>c880</t>
+  </si>
+  <si>
+    <t>c936</t>
+  </si>
+  <si>
+    <t>c987</t>
+  </si>
+  <si>
+    <t>c935</t>
+  </si>
+  <si>
+    <t>Svein Tjueskjegg</t>
+  </si>
+  <si>
+    <t>Eirik Håkonsson</t>
+  </si>
+  <si>
+    <t>den store</t>
+  </si>
+  <si>
+    <t>Valdemar Atterdag</t>
+  </si>
+  <si>
+    <t>Fra</t>
+  </si>
+  <si>
+    <t>Til</t>
+  </si>
+  <si>
+    <t>&lt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -353,8 +684,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,13 +1021,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="71.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +1041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -710,7 +1055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -724,7 +1069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -741,7 +1086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -755,7 +1100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -769,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -783,7 +1128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -797,7 +1142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -811,7 +1156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -825,7 +1170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -839,7 +1184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -853,7 +1198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -870,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -884,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -898,7 +1243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -912,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -926,7 +1271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -940,7 +1285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -954,7 +1299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -968,7 +1313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -982,7 +1327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -996,7 +1341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1010,7 +1355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1024,7 +1369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>74</v>
       </c>
@@ -1041,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -1055,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -1078,43 +1423,1728 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F635D866-A739-459B-9C9D-4E2670129127}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12316E75-A360-4BA0-9CDD-4FF8094A4E44}">
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="23.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="4.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="23.36328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>96</v>
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="3">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="3">
+        <f>A2</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="3">
+        <f>A3</f>
+        <v>2</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="2">
+        <v>995</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="2">
+        <v>995</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1015</v>
+      </c>
+      <c r="H8" s="3">
+        <f>A6</f>
+        <v>5</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1015</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1028</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1028</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1029</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1029</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1030</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1030</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1035</v>
+      </c>
+      <c r="H12" s="3">
+        <f>A11</f>
+        <v>10</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1035</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1047</v>
+      </c>
+      <c r="H13" s="3">
+        <f>A9</f>
+        <v>8</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1045</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1066</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2">
+        <v>1066</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1069</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1067</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1093</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1093</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1095</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1093</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1103</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2">
+        <v>1103</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1115</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2">
+        <v>1103</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1123</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1103</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1130</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1130</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1135</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1130</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1136</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1136</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1155</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1136</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1161</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2">
+        <v>1142</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1157</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1157</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1162</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2">
+        <v>1161</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1184</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2">
+        <v>1177</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1202</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2">
+        <v>1202</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1204</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2">
+        <v>1204</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1217</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="2">
+        <v>4</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2">
+        <v>1217</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1263</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1263</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1280</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2">
+        <v>1280</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1299</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="2">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2">
+        <v>1299</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1319</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="2">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2">
+        <v>1319</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1355</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2">
+        <v>1343</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1380</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2">
+        <v>1380</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1387</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1388</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1412</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1389</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1442</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1442</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1448</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1449</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1450</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2">
+        <v>1450</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1481</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="2">
+        <v>1481</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1483</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="2">
+        <v>1483</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1513</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="2">
+        <v>1513</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1523</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="2">
+        <v>1523</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1533</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="2">
+        <v>1533</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1537</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="2">
+        <v>3</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="2">
+        <v>1537</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1559</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="2">
+        <v>1559</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1588</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="2">
+        <v>4</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2">
+        <v>1588</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1648</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C52" s="2">
+        <v>3</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="2">
+        <v>1648</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1670</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="2">
+        <v>5</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="2">
+        <v>1670</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1699</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C54" s="2">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="2">
+        <v>1699</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1730</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="2">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="2">
+        <v>1730</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1746</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="2">
+        <v>1746</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1766</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="2">
+        <v>7</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="2">
+        <v>1766</v>
+      </c>
+      <c r="G57" s="2">
+        <v>1808</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="2">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="2">
+        <v>1808</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1814</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="2">
+        <v>1814</v>
+      </c>
+      <c r="G59" s="2">
+        <v>1814</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="2">
+        <v>1814</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1818</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1818</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1844</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="2">
+        <v>1844</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1859</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="2">
+        <v>1859</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1872</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>61</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="2">
+        <v>1872</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1905</v>
+      </c>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>62</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="2">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="2">
+        <v>1905</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1957</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>63</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="2">
+        <v>1957</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1991</v>
+      </c>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>64</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="2">
+        <v>1991</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3308FB-7925-4C36-8CEC-6535F803DA1B}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="7" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2">
+        <v>958</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5">
+        <v>1014</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +3152,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F635D866-A739-459B-9C9D-4E2670129127}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947B1CEA-FA84-45D9-90C6-D4DBFF984F60}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:A7"/>
@@ -1131,34 +3206,34 @@
       <selection activeCell="A7" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>90</v>
       </c>
